--- a/Product/SettingSource/StringsTable.xlsx
+++ b/Product/SettingSource/StringsTable.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\KSFramework\KSFramework\Product\SettingSource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065"/>
   </bookViews>
@@ -30,7 +25,7 @@
     <author>mrkelly</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -72,22 +67,17 @@
     <t>CommentB井号注释列</t>
   </si>
   <si>
-    <t>UILogin.LoginButtonText</t>
+    <t>START_GAME</t>
   </si>
   <si>
-    <t>查看I18N/zh_CN.xlsx翻译</t>
-  </si>
-  <si>
-    <t>UILogin.LoginDescText</t>
-  </si>
-  <si>
-    <t>#</t>
+    <t>ZHAOYUN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -183,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +199,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,13 +718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -774,20 +767,19 @@
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:C6"/>
